--- a/excel/data_pegawai.xlsx
+++ b/excel/data_pegawai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Applications\CodeIgniter\simpentra\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149C392-3751-4CB9-89AB-E880A58ADBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4236DB3-FC46-42FC-A2A3-B89018170AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>email</t>
   </si>
@@ -37,9 +37,6 @@
     <t>123019203901</t>
   </si>
   <si>
-    <t>123101903001</t>
-  </si>
-  <si>
     <t>Pegawai 1</t>
   </si>
   <si>
@@ -55,79 +52,25 @@
     <t>Koordinator Survei</t>
   </si>
   <si>
-    <t>Koordinator Sensus</t>
-  </si>
-  <si>
     <t>Pegawai 3</t>
   </si>
   <si>
     <t>Pegawai 4</t>
   </si>
   <si>
-    <t>Pegawai 5</t>
-  </si>
-  <si>
-    <t>Pegawai 6</t>
-  </si>
-  <si>
-    <t>Pegawai 7</t>
-  </si>
-  <si>
-    <t>Pegawai 8</t>
-  </si>
-  <si>
-    <t>Pegawai 9</t>
-  </si>
-  <si>
-    <t>Pegawai 10</t>
-  </si>
-  <si>
     <t>pegawai3@gmail.com</t>
   </si>
   <si>
     <t>pegawai4@gmail.com</t>
   </si>
   <si>
-    <t>pegawai5@gmail.com</t>
-  </si>
-  <si>
-    <t>pegawai6@gmail.com</t>
-  </si>
-  <si>
-    <t>pegawai7@gmail.com</t>
-  </si>
-  <si>
-    <t>pegawai8@gmail.com</t>
-  </si>
-  <si>
-    <t>pegawai9@gmail.com</t>
-  </si>
-  <si>
-    <t>pegawai10@gmail.com</t>
-  </si>
-  <si>
     <t>123019203902</t>
   </si>
   <si>
-    <t>123101903003</t>
+    <t>123019203903</t>
   </si>
   <si>
     <t>123019203904</t>
-  </si>
-  <si>
-    <t>123101903005</t>
-  </si>
-  <si>
-    <t>123019203912</t>
-  </si>
-  <si>
-    <t>123101901231</t>
-  </si>
-  <si>
-    <t>123019203965</t>
-  </si>
-  <si>
-    <t>123019203996</t>
   </si>
 </sst>
 </file>
@@ -521,11 +464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -559,139 +500,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +557,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{81EEF7A4-21C0-4365-A143-56E7FFE85803}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{192444D2-F109-47E3-A5A7-6500319839C7}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{9BCED993-A345-4D20-AB79-E5A395A9C1CE}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{F5FAD5BF-3444-4646-B957-CC632B4E4B82}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{334752E8-CF19-4B2D-9553-CE6646FF9C22}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{FF81918E-FD9D-4EEF-8A49-AE2B8195FCE9}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{81EEEFE8-4AF3-4623-A95F-5F4A04D77E47}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{4A35F5C6-6BEF-414D-A919-B412DC7F315A}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{A5A351F5-90E1-4B54-90BE-60733450AC68}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{FFDC0144-D43D-4AB5-84CA-72AD3D78C1D1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{81EEEFE8-4AF3-4623-A95F-5F4A04D77E47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
